--- a/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
+++ b/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
@@ -40,12 +40,13 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>캠페인 담당자</t>
+      <t>캠페인 소유자</t>
     </r>
   </si>
   <si>
@@ -63,6 +64,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -74,12 +76,13 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>캠페인 유형</t>
+      <t>캠페인 종류</t>
     </r>
   </si>
   <si>
@@ -109,23 +112,25 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>총 대상 사용자</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>총 대상 사용자 수</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>참여한 사용자</t>
+      <t>참여 사용자</t>
     </r>
   </si>
   <si>
@@ -446,7 +451,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,12 +463,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
@@ -700,14 +699,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:H13"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="캠페인 담당자" dataDxfId="7"/>
+    <tableColumn id="1" name="캠페인 소유자" dataDxfId="7"/>
     <tableColumn id="2" name="  캠페인 이름" dataDxfId="6"/>
     <tableColumn id="3" name="시작 날짜" dataDxfId="5"/>
-    <tableColumn id="4" name="캠페인 유형" dataDxfId="4"/>
+    <tableColumn id="4" name="캠페인 종류" dataDxfId="4"/>
     <tableColumn id="5" name="Budget" dataDxfId="3"/>
     <tableColumn id="6" name="수익" dataDxfId="2"/>
-    <tableColumn id="7" name="총 대상 사용자" dataDxfId="1"/>
-    <tableColumn id="8" name="참여한 사용자" dataDxfId="0"/>
+    <tableColumn id="7" name="총 대상 사용자 수" dataDxfId="1"/>
+    <tableColumn id="8" name="참여 사용자" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
